--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/VERMONT_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/VERMONT_2012.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,923 +360,720 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Mexicali</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>La Paz</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COMITAN DE DOMINGUEZ</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.1666666666666997E-2</t>
-        </is>
+          <t>Comitan De Dominguez</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.041666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Escuintla</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>La Trinitaria</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.1666666666666997E-2</t>
-        </is>
+          <t>Las Margaritas</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.041666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.11111111111111099</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Iztapalapa</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Atlixtac</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHILAPA DE ALVAREZ</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Chilapa De Alvarez</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Chilpancingo De Los Bravo</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>METLATONOC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Metlatonoc</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CARACUARO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Caracuaro</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAGDALENA MIXTEPEC</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Magdalena Mixtepec</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIAHUATLAN DE PORFIRIO DIAZ</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.7777777777777998E-2</t>
-        </is>
+          <t>Miahuatlan De Porfirio Diaz</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.027777777777778</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>OAXACA DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Oaxaca De Juarez</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>OCOTLAN DE MORELOS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Ocotlan De Morelos</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.7222222222222002E-2</t>
-        </is>
+          <t>San Antonino Monte Verde</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0.097222222222222</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>San Pedro Y San Pablo Teposcolula</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO PETAPA</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Santo Domingo Petapa</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.194444444444444</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>0.194444444444444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Chiautzingo</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Hueytamalco</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>JOLALPAN</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Jolalpan</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TEZIUTLAN</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Teziutlan</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.11111111111111099</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CAJEME</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Cajeme</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BALANCAN</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Balancan</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>CARDENAS</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.15277777777777801</t>
-        </is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>0.152777777777778</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Comalcalco</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8.3333333333332996E-2</t>
-        </is>
+          <t>Huimanguillo</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>PARAISO</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Paraiso</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.27777777777777801</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>0.277777777777778</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>8.3333333333332996E-2</t>
-        </is>
+          <t>Altotonga</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.7777777777777998E-2</t>
-        </is>
+          <t>Atzalan</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0.027777777777778</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MARTINEZ DE LA TORRE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.7777777777777998E-2</t>
-        </is>
+          <t>Martinez De La Torre</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0.027777777777778</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Playa Vicente</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.3888888888888999E-2</t>
-        </is>
+          <t>Tlalixcoyan</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.013888888888889</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.16666666666666699</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Noviembre del 2013</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/VERMONT_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/VERMONT_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Metlatonoc</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Miahuatlan De Porfirio Diaz</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Santo Domingo Petapa</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Paraiso</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
